--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2805.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2805.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169249105763187</v>
+        <v>0.9034742712974548</v>
       </c>
       <c r="B1">
-        <v>2.441315326636923</v>
+        <v>1.630229592323303</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.293648719787598</v>
       </c>
       <c r="D1">
-        <v>2.364520187168368</v>
+        <v>2.787139892578125</v>
       </c>
       <c r="E1">
-        <v>1.231611273652904</v>
+        <v>0.7380626797676086</v>
       </c>
     </row>
   </sheetData>
